--- a/ege19-21/r00.xlsx
+++ b/ege19-21/r00.xlsx
@@ -4,31 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Process finished with exit code 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,16 +32,334 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -54,15 +367,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,13 +879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GQ201"/>
+  <dimension ref="A1:GQ199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3963,602 +4481,602 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:199" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD7">
+    <row r="7" spans="1:199" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
         <v>4</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="1">
         <v>3</v>
       </c>
-      <c r="AF7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AF7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
         <v>4</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="1">
         <v>3</v>
       </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AS7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-      <c r="BD7">
-        <v>1</v>
-      </c>
-      <c r="BE7">
-        <v>1</v>
-      </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>1</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BL7">
-        <v>1</v>
-      </c>
-      <c r="BM7">
-        <v>1</v>
-      </c>
-      <c r="BN7">
-        <v>1</v>
-      </c>
-      <c r="BO7">
-        <v>1</v>
-      </c>
-      <c r="BP7">
-        <v>1</v>
-      </c>
-      <c r="BQ7">
-        <v>1</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7">
-        <v>0</v>
-      </c>
-      <c r="BZ7">
-        <v>0</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7">
-        <v>0</v>
-      </c>
-      <c r="CE7">
-        <v>0</v>
-      </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
-      </c>
-      <c r="CS7">
-        <v>0</v>
-      </c>
-      <c r="CT7">
-        <v>0</v>
-      </c>
-      <c r="CU7">
-        <v>0</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CW7">
-        <v>0</v>
-      </c>
-      <c r="CX7">
-        <v>0</v>
-      </c>
-      <c r="CY7">
-        <v>0</v>
-      </c>
-      <c r="CZ7">
-        <v>0</v>
-      </c>
-      <c r="DA7">
-        <v>0</v>
-      </c>
-      <c r="DB7">
-        <v>0</v>
-      </c>
-      <c r="DC7">
-        <v>0</v>
-      </c>
-      <c r="DD7">
-        <v>0</v>
-      </c>
-      <c r="DE7">
-        <v>0</v>
-      </c>
-      <c r="DF7">
-        <v>0</v>
-      </c>
-      <c r="DG7">
-        <v>0</v>
-      </c>
-      <c r="DH7">
-        <v>0</v>
-      </c>
-      <c r="DI7">
-        <v>0</v>
-      </c>
-      <c r="DJ7">
-        <v>0</v>
-      </c>
-      <c r="DK7">
-        <v>0</v>
-      </c>
-      <c r="DL7">
-        <v>0</v>
-      </c>
-      <c r="DM7">
-        <v>0</v>
-      </c>
-      <c r="DN7">
-        <v>0</v>
-      </c>
-      <c r="DO7">
-        <v>0</v>
-      </c>
-      <c r="DP7">
-        <v>0</v>
-      </c>
-      <c r="DQ7">
-        <v>0</v>
-      </c>
-      <c r="DR7">
-        <v>0</v>
-      </c>
-      <c r="DS7">
-        <v>0</v>
-      </c>
-      <c r="DT7">
-        <v>0</v>
-      </c>
-      <c r="DU7">
-        <v>0</v>
-      </c>
-      <c r="DV7">
-        <v>0</v>
-      </c>
-      <c r="DW7">
-        <v>0</v>
-      </c>
-      <c r="DX7">
-        <v>0</v>
-      </c>
-      <c r="DY7">
-        <v>0</v>
-      </c>
-      <c r="DZ7">
-        <v>0</v>
-      </c>
-      <c r="EA7">
-        <v>0</v>
-      </c>
-      <c r="EB7">
-        <v>0</v>
-      </c>
-      <c r="EC7">
-        <v>0</v>
-      </c>
-      <c r="ED7">
-        <v>0</v>
-      </c>
-      <c r="EE7">
-        <v>0</v>
-      </c>
-      <c r="EF7">
-        <v>0</v>
-      </c>
-      <c r="EG7">
-        <v>0</v>
-      </c>
-      <c r="EH7">
-        <v>0</v>
-      </c>
-      <c r="EI7">
-        <v>0</v>
-      </c>
-      <c r="EJ7">
-        <v>0</v>
-      </c>
-      <c r="EK7">
-        <v>0</v>
-      </c>
-      <c r="EL7">
-        <v>0</v>
-      </c>
-      <c r="EM7">
-        <v>0</v>
-      </c>
-      <c r="EN7">
-        <v>0</v>
-      </c>
-      <c r="EO7">
-        <v>0</v>
-      </c>
-      <c r="EP7">
-        <v>0</v>
-      </c>
-      <c r="EQ7">
-        <v>0</v>
-      </c>
-      <c r="ER7">
-        <v>0</v>
-      </c>
-      <c r="ES7">
-        <v>0</v>
-      </c>
-      <c r="ET7">
-        <v>0</v>
-      </c>
-      <c r="EU7">
-        <v>0</v>
-      </c>
-      <c r="EV7">
-        <v>0</v>
-      </c>
-      <c r="EW7">
-        <v>0</v>
-      </c>
-      <c r="EX7">
-        <v>0</v>
-      </c>
-      <c r="EY7">
-        <v>0</v>
-      </c>
-      <c r="EZ7">
-        <v>0</v>
-      </c>
-      <c r="FA7">
-        <v>0</v>
-      </c>
-      <c r="FB7">
-        <v>0</v>
-      </c>
-      <c r="FC7">
-        <v>0</v>
-      </c>
-      <c r="FD7">
-        <v>0</v>
-      </c>
-      <c r="FE7">
-        <v>0</v>
-      </c>
-      <c r="FF7">
-        <v>0</v>
-      </c>
-      <c r="FG7">
-        <v>0</v>
-      </c>
-      <c r="FH7">
-        <v>0</v>
-      </c>
-      <c r="FI7">
-        <v>0</v>
-      </c>
-      <c r="FJ7">
-        <v>0</v>
-      </c>
-      <c r="FK7">
-        <v>0</v>
-      </c>
-      <c r="FL7">
-        <v>0</v>
-      </c>
-      <c r="FM7">
-        <v>0</v>
-      </c>
-      <c r="FN7">
-        <v>0</v>
-      </c>
-      <c r="FO7">
-        <v>0</v>
-      </c>
-      <c r="FP7">
-        <v>0</v>
-      </c>
-      <c r="FQ7">
-        <v>0</v>
-      </c>
-      <c r="FR7">
-        <v>0</v>
-      </c>
-      <c r="FS7">
-        <v>0</v>
-      </c>
-      <c r="FT7">
-        <v>0</v>
-      </c>
-      <c r="FU7">
-        <v>0</v>
-      </c>
-      <c r="FV7">
-        <v>0</v>
-      </c>
-      <c r="FW7">
-        <v>0</v>
-      </c>
-      <c r="FX7">
-        <v>0</v>
-      </c>
-      <c r="FY7">
-        <v>0</v>
-      </c>
-      <c r="FZ7">
-        <v>0</v>
-      </c>
-      <c r="GA7">
-        <v>0</v>
-      </c>
-      <c r="GB7">
-        <v>0</v>
-      </c>
-      <c r="GC7">
-        <v>0</v>
-      </c>
-      <c r="GD7">
-        <v>0</v>
-      </c>
-      <c r="GE7">
-        <v>0</v>
-      </c>
-      <c r="GF7">
-        <v>0</v>
-      </c>
-      <c r="GG7">
-        <v>0</v>
-      </c>
-      <c r="GH7">
-        <v>0</v>
-      </c>
-      <c r="GI7">
-        <v>0</v>
-      </c>
-      <c r="GJ7">
-        <v>0</v>
-      </c>
-      <c r="GK7">
-        <v>0</v>
-      </c>
-      <c r="GL7">
-        <v>0</v>
-      </c>
-      <c r="GM7">
-        <v>0</v>
-      </c>
-      <c r="GN7">
-        <v>0</v>
-      </c>
-      <c r="GO7">
-        <v>0</v>
-      </c>
-      <c r="GP7">
-        <v>0</v>
-      </c>
-      <c r="GQ7">
+      <c r="AI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -119568,11 +120086,6 @@
       </c>
       <c r="GQ199">
         <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:199" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -119590,28 +120103,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>